--- a/相关性表.xlsx
+++ b/相关性表.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -488,19 +488,19 @@
         <v>2.182787284255028e-16</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8169461302892405</v>
+        <v>0.8169461302892409</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7597982508379546</v>
+        <v>0.7597982508379537</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.4077508447934555</v>
+        <v>-0.4077508447934572</v>
       </c>
       <c r="G2" t="n">
         <v>-0.7100310782838016</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.6829295638496024</v>
+        <v>-0.6829295638496022</v>
       </c>
       <c r="I2" t="n">
         <v>0.6568566025073492</v>
@@ -519,22 +519,22 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5552393230968177</v>
+        <v>0.5552393230968171</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5431897993389835</v>
+        <v>0.5431897993389847</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.3244035725261739</v>
+        <v>-0.3244035725261749</v>
       </c>
       <c r="G3" t="n">
         <v>-0.5489904721683921</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09083920512071737</v>
+        <v>0.09083920512071744</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3111602719272101</v>
+        <v>-0.31116027192721</v>
       </c>
     </row>
     <row r="4">
@@ -544,28 +544,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8169461302892405</v>
+        <v>0.8169461302892409</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5552393230968177</v>
+        <v>0.5552393230968171</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9336825400105706</v>
+        <v>0.9336825400105705</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.5341679389722483</v>
+        <v>-0.5341679389722503</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.9237991392429855</v>
+        <v>-0.9237991392429848</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.4863715344402223</v>
+        <v>-0.4863715344402224</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3649517739339299</v>
+        <v>0.3649517739339301</v>
       </c>
     </row>
     <row r="5">
@@ -575,25 +575,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7597982508379546</v>
+        <v>0.7597982508379537</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5431897993389835</v>
+        <v>0.5431897993389847</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9336825400105706</v>
+        <v>0.9336825400105705</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3509055950762491</v>
+        <v>-0.3509055950762499</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.8438062368476229</v>
+        <v>-0.843806236847624</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.4151780122115762</v>
+        <v>-0.4151780122115759</v>
       </c>
       <c r="I5" t="n">
         <v>0.2830303548728993</v>
@@ -606,28 +606,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.4077508447934555</v>
+        <v>-0.4077508447934572</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.3244035725261739</v>
+        <v>-0.3244035725261749</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.5341679389722483</v>
+        <v>-0.5341679389722503</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.3509055950762491</v>
+        <v>-0.3509055950762499</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5898002258009425</v>
+        <v>0.5898002258009435</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.0125286853164375</v>
+        <v>-0.01252868531643713</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1684727494084774</v>
+        <v>-0.1684727494084775</v>
       </c>
     </row>
     <row r="7">
@@ -643,22 +643,22 @@
         <v>-0.5489904721683921</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.9237991392429855</v>
+        <v>-0.9237991392429848</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.8438062368476229</v>
+        <v>-0.843806236847624</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5898002258009425</v>
+        <v>0.5898002258009435</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3908851816460231</v>
+        <v>0.3908851816460229</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3872756948794392</v>
+        <v>-0.3872756948794391</v>
       </c>
     </row>
     <row r="8">
@@ -668,28 +668,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.6829295638496024</v>
+        <v>-0.6829295638496022</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09083920512071737</v>
+        <v>0.09083920512071744</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.4863715344402223</v>
+        <v>-0.4863715344402224</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.4151780122115762</v>
+        <v>-0.4151780122115759</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.0125286853164375</v>
+        <v>-0.01252868531643713</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3908851816460231</v>
+        <v>0.3908851816460229</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.7893328159642462</v>
+        <v>-0.789332815964246</v>
       </c>
     </row>
     <row r="9">
@@ -702,22 +702,22 @@
         <v>0.6568566025073492</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.3111602719272101</v>
+        <v>-0.31116027192721</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3649517739339299</v>
+        <v>0.3649517739339301</v>
       </c>
       <c r="E9" t="n">
         <v>0.2830303548728993</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.1684727494084774</v>
+        <v>-0.1684727494084775</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3872756948794392</v>
+        <v>-0.3872756948794391</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.7893328159642462</v>
+        <v>-0.789332815964246</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
